--- a/biology/Botanique/Thigmotropisme/Thigmotropisme.xlsx
+++ b/biology/Botanique/Thigmotropisme/Thigmotropisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En physiologie végétale, le thigmotropisme (ou haptotropisme) est un type de tropisme qui répond à une stimulation tactile. Le terme est issu du grec θιγμοτροπισμός (thigmotropismós), θιγμός (thigmós « toucher doux ») et τροπισμός (tropismós « mouvement d’orientation », du grec ancien τρόπος (trópos « virage »)).
-La plante, en réaction à cette stimulation, va avoir une réaction dépendant de la direction du stimulus selon le principe suivant : la face qui est soumise à la stimulation grandit moins vite que celle qui ne touche pas, induisant ainsi une modification de la direction de croissance de l'organe concerné, et pouvant même conduire à la création de vrilles[1].
+La plante, en réaction à cette stimulation, va avoir une réaction dépendant de la direction du stimulus selon le principe suivant : la face qui est soumise à la stimulation grandit moins vite que celle qui ne touche pas, induisant ainsi une modification de la direction de croissance de l'organe concerné, et pouvant même conduire à la création de vrilles.
 Chez le concombre (Cucumis sativus) ou la bryone (Brionia dioica), on trouve des vrilles servant à la fixation de la plante.
 </t>
         </is>
